--- a/Optimization models (Pyomo)/MAGDALENA/resultados_modelo_transporte.xlsx
+++ b/Optimization models (Pyomo)/MAGDALENA/resultados_modelo_transporte.xlsx
@@ -17163,7 +17163,7 @@
     </row>
     <row r="2" spans="1:2797">
       <c r="A2">
-        <v>1162576266800</v>
+        <v>25603040993.56501</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17244,34 +17244,34 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -17349,37 +17349,37 @@
         <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -17454,40 +17454,40 @@
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU2">
         <v>1</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -17562,40 +17562,40 @@
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE2">
         <v>1</v>
       </c>
       <c r="EF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP2">
         <v>0</v>
@@ -17673,37 +17673,37 @@
         <v>1</v>
       </c>
       <c r="FO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
         <v>0</v>
@@ -17781,37 +17781,37 @@
         <v>1</v>
       </c>
       <c r="GY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -17886,40 +17886,40 @@
         <v>0</v>
       </c>
       <c r="IH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II2">
         <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT2">
         <v>0</v>
@@ -17994,40 +17994,40 @@
         <v>0</v>
       </c>
       <c r="JR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS2">
         <v>1</v>
       </c>
       <c r="JT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD2">
         <v>0</v>
@@ -18105,37 +18105,37 @@
         <v>1</v>
       </c>
       <c r="LC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN2">
         <v>0</v>
@@ -18210,40 +18210,40 @@
         <v>0</v>
       </c>
       <c r="ML2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM2">
         <v>1</v>
       </c>
       <c r="MN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX2">
         <v>0</v>
@@ -18321,37 +18321,37 @@
         <v>1</v>
       </c>
       <c r="NW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OH2">
         <v>0</v>
@@ -18429,37 +18429,37 @@
         <v>1</v>
       </c>
       <c r="PG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PR2">
         <v>0</v>
@@ -18537,37 +18537,37 @@
         <v>1</v>
       </c>
       <c r="QQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RB2">
         <v>0</v>
@@ -18645,37 +18645,37 @@
         <v>1</v>
       </c>
       <c r="SA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SL2">
         <v>0</v>
@@ -18753,37 +18753,37 @@
         <v>1</v>
       </c>
       <c r="TK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TV2">
         <v>0</v>
@@ -18861,37 +18861,37 @@
         <v>1</v>
       </c>
       <c r="UU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VF2">
         <v>0</v>
@@ -18966,40 +18966,40 @@
         <v>0</v>
       </c>
       <c r="WD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WE2">
         <v>1</v>
       </c>
       <c r="WF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WP2">
         <v>0</v>
@@ -19077,37 +19077,37 @@
         <v>1</v>
       </c>
       <c r="XO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XZ2">
         <v>0</v>
@@ -19185,37 +19185,37 @@
         <v>1</v>
       </c>
       <c r="YY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZJ2">
         <v>0</v>
@@ -19293,37 +19293,37 @@
         <v>1</v>
       </c>
       <c r="AAI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAT2">
         <v>0</v>
@@ -19401,37 +19401,37 @@
         <v>1</v>
       </c>
       <c r="ABS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACD2">
         <v>0</v>
@@ -19509,37 +19509,37 @@
         <v>1</v>
       </c>
       <c r="ADC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADN2">
         <v>0</v>
@@ -19617,37 +19617,37 @@
         <v>1</v>
       </c>
       <c r="AEM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AER2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AES2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AET2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEX2">
         <v>0</v>
@@ -19725,37 +19725,37 @@
         <v>1</v>
       </c>
       <c r="AFW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGH2">
         <v>0</v>
@@ -19830,40 +19830,40 @@
         <v>0</v>
       </c>
       <c r="AHF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHG2">
         <v>1</v>
       </c>
       <c r="AHH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHR2">
         <v>0</v>
@@ -19941,37 +19941,37 @@
         <v>33900</v>
       </c>
       <c r="AIQ2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIR2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIS2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIT2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIU2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIV2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIW2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIX2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIY2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIZ2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AJA2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AJB2">
         <v>0</v>
@@ -20046,40 +20046,40 @@
         <v>0</v>
       </c>
       <c r="AJZ2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKA2">
         <v>6000</v>
       </c>
       <c r="AKB2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKC2">
-        <v>0</v>
+        <v>847.561000000002</v>
       </c>
       <c r="AKD2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKE2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKF2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKG2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKH2">
-        <v>0</v>
+        <v>1925.94500000001</v>
       </c>
       <c r="AKI2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKJ2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKK2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKL2">
         <v>0</v>
@@ -20154,40 +20154,40 @@
         <v>0</v>
       </c>
       <c r="ALJ2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALK2">
         <v>1800</v>
       </c>
       <c r="ALL2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALM2">
         <v>0</v>
       </c>
       <c r="ALN2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALO2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALP2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALQ2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALR2">
         <v>0</v>
       </c>
       <c r="ALS2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALT2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALU2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALV2">
         <v>0</v>
@@ -20265,37 +20265,37 @@
         <v>900</v>
       </c>
       <c r="AMU2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMV2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMW2">
         <v>0</v>
       </c>
       <c r="AMX2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMY2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMZ2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANA2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANB2">
         <v>0</v>
       </c>
       <c r="ANC2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AND2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANE2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANF2">
         <v>0</v>
@@ -21021,37 +21021,37 @@
         <v>4500</v>
       </c>
       <c r="AWM2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWN2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWO2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWP2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWQ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWR2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWV2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWX2">
         <v>0</v>
@@ -21129,37 +21129,37 @@
         <v>11700</v>
       </c>
       <c r="AXW2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AXX2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AXY2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AXZ2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYA2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYB2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYC2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYD2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYE2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYF2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYG2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AYH2">
         <v>0</v>
@@ -21558,40 +21558,40 @@
         <v>0</v>
       </c>
       <c r="BDJ2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDK2">
         <v>3300</v>
       </c>
       <c r="BDL2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDM2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDN2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDO2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDP2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDQ2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDR2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDS2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDT2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDU2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDV2">
         <v>0</v>
@@ -21990,40 +21990,40 @@
         <v>0</v>
       </c>
       <c r="BIX2">
+        <v>4999</v>
+      </c>
+      <c r="BIY2">
+        <v>5841.4875</v>
+      </c>
+      <c r="BIZ2">
+        <v>9042.940000000001</v>
+      </c>
+      <c r="BJA2">
         <v>15000</v>
       </c>
-      <c r="BIY2">
-        <v>0</v>
-      </c>
-      <c r="BIZ2">
-        <v>0</v>
-      </c>
-      <c r="BJA2">
-        <v>0</v>
-      </c>
       <c r="BJB2">
-        <v>0</v>
+        <v>8031.955</v>
       </c>
       <c r="BJC2">
-        <v>0</v>
+        <v>7256.8665</v>
       </c>
       <c r="BJD2">
-        <v>0</v>
+        <v>7189.4675</v>
       </c>
       <c r="BJE2">
-        <v>0</v>
+        <v>10256.122</v>
       </c>
       <c r="BJF2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BJG2">
-        <v>0</v>
+        <v>9986.526</v>
       </c>
       <c r="BJH2">
-        <v>0</v>
+        <v>11435.6045</v>
       </c>
       <c r="BJI2">
-        <v>0</v>
+        <v>12918.3825</v>
       </c>
       <c r="BJJ2">
         <v>0</v>
@@ -22098,17 +22098,17 @@
         <v>0</v>
       </c>
       <c r="BKH2">
+        <v>0</v>
+      </c>
+      <c r="BKI2">
+        <v>0</v>
+      </c>
+      <c r="BKJ2">
+        <v>0</v>
+      </c>
+      <c r="BKK2">
         <v>480</v>
       </c>
-      <c r="BKI2">
-        <v>0</v>
-      </c>
-      <c r="BKJ2">
-        <v>0</v>
-      </c>
-      <c r="BKK2">
-        <v>0</v>
-      </c>
       <c r="BKL2">
         <v>0</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="BKP2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="BKQ2">
         <v>0</v>
@@ -22317,37 +22317,37 @@
         <v>300</v>
       </c>
       <c r="BNC2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BND2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNE2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNF2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNG2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNH2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNI2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNJ2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNK2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNL2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNM2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNN2">
         <v>0</v>
@@ -22965,37 +22965,37 @@
         <v>1855</v>
       </c>
       <c r="BVK2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVL2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVM2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVN2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVO2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVP2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVQ2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVR2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVS2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVT2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVU2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVV2">
         <v>0</v>
@@ -23070,40 +23070,40 @@
         <v>0</v>
       </c>
       <c r="BWT2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWU2">
         <v>1630</v>
       </c>
       <c r="BWV2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWW2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWX2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWY2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWZ2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXA2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXB2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXC2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXD2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXE2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXF2">
         <v>0</v>
@@ -23178,40 +23178,40 @@
         <v>0</v>
       </c>
       <c r="BYD2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYE2">
         <v>1020</v>
       </c>
       <c r="BYF2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYG2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYH2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYI2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYJ2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYK2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYL2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYM2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYN2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYO2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYP2">
         <v>0</v>
@@ -23289,37 +23289,37 @@
         <v>2700</v>
       </c>
       <c r="BZO2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZP2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZQ2">
-        <v>0</v>
+        <v>1088.904</v>
       </c>
       <c r="BZR2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZS2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZT2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZU2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZV2">
-        <v>0</v>
+        <v>1625.48</v>
       </c>
       <c r="BZW2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZX2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZY2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZZ2">
         <v>0</v>
@@ -23394,40 +23394,40 @@
         <v>0</v>
       </c>
       <c r="CAX2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CAY2">
         <v>1420</v>
       </c>
       <c r="CAZ2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBA2">
         <v>0</v>
       </c>
       <c r="CBB2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBC2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBD2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBE2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBF2">
         <v>0</v>
       </c>
       <c r="CBG2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBH2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBI2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBJ2">
         <v>0</v>
@@ -23505,37 +23505,37 @@
         <v>3600</v>
       </c>
       <c r="CCI2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCJ2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCK2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCL2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCM2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCN2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCO2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCP2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCQ2">
-        <v>0</v>
+        <v>2942.664</v>
       </c>
       <c r="CCR2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCS2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCT2">
         <v>0</v>
@@ -23613,37 +23613,37 @@
         <v>4500</v>
       </c>
       <c r="CDS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDV2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDX2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDY2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDZ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CEA2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CEB2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CEC2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CED2">
         <v>0</v>
@@ -23829,37 +23829,37 @@
         <v>4500</v>
       </c>
       <c r="CGM2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGN2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGO2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGP2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGQ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGR2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGV2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGX2">
         <v>0</v>
@@ -23937,37 +23937,37 @@
         <v>900</v>
       </c>
       <c r="CHW2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHX2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHY2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHZ2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIA2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIB2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIC2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CID2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIE2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIF2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIG2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIH2">
         <v>0</v>
@@ -24045,37 +24045,37 @@
         <v>2100</v>
       </c>
       <c r="CJG2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJH2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJI2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJJ2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJK2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJL2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJM2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJN2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJO2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJP2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJQ2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJR2">
         <v>0</v>
@@ -24261,37 +24261,37 @@
         <v>3840</v>
       </c>
       <c r="CMA2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMB2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMC2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMD2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CME2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMF2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMG2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMH2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMI2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMJ2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMK2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CML2">
         <v>0</v>
@@ -24366,40 +24366,40 @@
         <v>0</v>
       </c>
       <c r="CNJ2">
+        <v>521</v>
+      </c>
+      <c r="CNK2">
+        <v>940.199999999997</v>
+      </c>
+      <c r="CNL2">
         <v>2400</v>
       </c>
-      <c r="CNK2">
-        <v>0</v>
-      </c>
-      <c r="CNL2">
-        <v>0</v>
-      </c>
       <c r="CNM2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNN2">
-        <v>0</v>
+        <v>2030.12</v>
       </c>
       <c r="CNO2">
-        <v>0</v>
+        <v>1644.456</v>
       </c>
       <c r="CNP2">
-        <v>0</v>
+        <v>1610.92</v>
       </c>
       <c r="CNQ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNR2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNS2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNT2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNU2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNV2">
         <v>0</v>
@@ -24474,17 +24474,17 @@
         <v>0</v>
       </c>
       <c r="COT2">
+        <v>0</v>
+      </c>
+      <c r="COU2">
+        <v>0</v>
+      </c>
+      <c r="COV2">
+        <v>133.160000000003</v>
+      </c>
+      <c r="COW2">
         <v>1260</v>
       </c>
-      <c r="COU2">
-        <v>0</v>
-      </c>
-      <c r="COV2">
-        <v>0</v>
-      </c>
-      <c r="COW2">
-        <v>0</v>
-      </c>
       <c r="COX2">
         <v>0</v>
       </c>
@@ -24495,19 +24495,19 @@
         <v>0</v>
       </c>
       <c r="CPA2">
-        <v>0</v>
+        <v>736.807999999997</v>
       </c>
       <c r="CPB2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPC2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPD2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPE2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPF2">
         <v>0</v>
@@ -24690,17 +24690,17 @@
         <v>0</v>
       </c>
       <c r="CRN2">
+        <v>0</v>
+      </c>
+      <c r="CRO2">
+        <v>0</v>
+      </c>
+      <c r="CRP2">
+        <v>0</v>
+      </c>
+      <c r="CRQ2">
         <v>1200</v>
       </c>
-      <c r="CRO2">
-        <v>0</v>
-      </c>
-      <c r="CRP2">
-        <v>0</v>
-      </c>
-      <c r="CRQ2">
-        <v>0</v>
-      </c>
       <c r="CRR2">
         <v>0</v>
       </c>
@@ -24714,16 +24714,16 @@
         <v>0</v>
       </c>
       <c r="CRV2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CRW2">
         <v>0</v>
       </c>
       <c r="CRX2">
-        <v>0</v>
+        <v>63.6880000000019</v>
       </c>
       <c r="CRY2">
-        <v>0</v>
+        <v>801.480000000003</v>
       </c>
       <c r="CRZ2">
         <v>0</v>
@@ -24801,37 +24801,37 @@
         <v>1100</v>
       </c>
       <c r="CSY2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CSZ2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTA2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTB2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTC2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTD2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTE2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTF2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTG2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTH2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTI2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTJ2">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="CUB2">
-        <v>0</v>
+        <v>-1.60982338570648E-13</v>
       </c>
       <c r="CUC2">
         <v>0</v>
@@ -24909,37 +24909,37 @@
         <v>2400</v>
       </c>
       <c r="CUI2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUJ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUK2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUL2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUM2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUN2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUO2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUP2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUQ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUR2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUS2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUT2">
         <v>0</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="CVL2">
-        <v>0</v>
+        <v>1.60982338570648E-13</v>
       </c>
       <c r="CVM2">
         <v>0</v>
@@ -25014,40 +25014,40 @@
         <v>0</v>
       </c>
       <c r="CVR2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVS2">
         <v>1450</v>
       </c>
       <c r="CVT2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVU2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVV2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVW2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVX2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVY2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVZ2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWA2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWB2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWC2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWD2">
         <v>0</v>
@@ -25122,40 +25122,40 @@
         <v>0</v>
       </c>
       <c r="CXB2">
-        <v>66780</v>
+        <v>67399</v>
       </c>
       <c r="CXC2">
-        <v>11100</v>
+        <v>68241.4875</v>
       </c>
       <c r="CXD2">
-        <v>0</v>
+        <v>71442.94</v>
       </c>
       <c r="CXE2">
-        <v>0</v>
+        <v>70027.561</v>
       </c>
       <c r="CXF2">
-        <v>0</v>
+        <v>70431.955</v>
       </c>
       <c r="CXG2">
-        <v>0</v>
+        <v>69656.8665</v>
       </c>
       <c r="CXH2">
-        <v>0</v>
+        <v>69589.4675</v>
       </c>
       <c r="CXI2">
-        <v>0</v>
+        <v>72656.122</v>
       </c>
       <c r="CXJ2">
-        <v>0</v>
+        <v>71105.94500000001</v>
       </c>
       <c r="CXK2">
-        <v>0</v>
+        <v>72386.526</v>
       </c>
       <c r="CXL2">
-        <v>0</v>
+        <v>73835.6045</v>
       </c>
       <c r="CXM2">
-        <v>0</v>
+        <v>75318.38250000001</v>
       </c>
       <c r="CXN2">
         <v>0</v>
@@ -25230,40 +25230,40 @@
         <v>0</v>
       </c>
       <c r="CYL2">
-        <v>32355</v>
+        <v>33536</v>
       </c>
       <c r="CYM2">
-        <v>5520</v>
+        <v>33955.2</v>
       </c>
       <c r="CYN2">
-        <v>0</v>
+        <v>35548.16</v>
       </c>
       <c r="CYO2">
-        <v>0</v>
+        <v>34843.904</v>
       </c>
       <c r="CYP2">
-        <v>0</v>
+        <v>35045.12</v>
       </c>
       <c r="CYQ2">
-        <v>0</v>
+        <v>34659.456</v>
       </c>
       <c r="CYR2">
-        <v>0</v>
+        <v>34625.92</v>
       </c>
       <c r="CYS2">
-        <v>0</v>
+        <v>36151.808</v>
       </c>
       <c r="CYT2">
-        <v>0</v>
+        <v>35380.48</v>
       </c>
       <c r="CYU2">
-        <v>0</v>
+        <v>36017.664</v>
       </c>
       <c r="CYV2">
-        <v>0</v>
+        <v>36738.688</v>
       </c>
       <c r="CYW2">
-        <v>0</v>
+        <v>37476.48</v>
       </c>
       <c r="CYX2">
         <v>0</v>
@@ -25482,76 +25482,76 @@
         <v>-0</v>
       </c>
       <c r="DBR2">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="DBS2">
-        <v>57141.4875</v>
+        <v>0</v>
       </c>
       <c r="DBT2">
-        <v>71442.94</v>
+        <v>0</v>
       </c>
       <c r="DBU2">
-        <v>70027.561</v>
+        <v>0</v>
       </c>
       <c r="DBV2">
-        <v>70431.955</v>
+        <v>0</v>
       </c>
       <c r="DBW2">
-        <v>69656.8665</v>
+        <v>0</v>
       </c>
       <c r="DBX2">
-        <v>69589.4675</v>
+        <v>0</v>
       </c>
       <c r="DBY2">
-        <v>72656.122</v>
+        <v>0</v>
       </c>
       <c r="DBZ2">
-        <v>71105.94500000001</v>
+        <v>0</v>
       </c>
       <c r="DCA2">
-        <v>72386.526</v>
+        <v>0</v>
       </c>
       <c r="DCB2">
-        <v>73835.6045</v>
+        <v>0</v>
       </c>
       <c r="DCC2">
-        <v>75318.38250000001</v>
+        <v>0</v>
       </c>
       <c r="DCD2">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="DCE2">
-        <v>28435.2</v>
+        <v>0</v>
       </c>
       <c r="DCF2">
-        <v>35548.16</v>
+        <v>0</v>
       </c>
       <c r="DCG2">
-        <v>34843.904</v>
+        <v>0</v>
       </c>
       <c r="DCH2">
-        <v>35045.12</v>
+        <v>0</v>
       </c>
       <c r="DCI2">
-        <v>34659.456</v>
+        <v>0</v>
       </c>
       <c r="DCJ2">
-        <v>34625.92</v>
+        <v>0</v>
       </c>
       <c r="DCK2">
-        <v>36151.808</v>
+        <v>0</v>
       </c>
       <c r="DCL2">
-        <v>35380.48</v>
+        <v>0</v>
       </c>
       <c r="DCM2">
-        <v>36017.664</v>
+        <v>0</v>
       </c>
       <c r="DCN2">
-        <v>36738.688</v>
+        <v>0</v>
       </c>
       <c r="DCO2">
-        <v>37476.48</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization models (Pyomo)/MAGDALENA/resultados_modelo_transporte.xlsx
+++ b/Optimization models (Pyomo)/MAGDALENA/resultados_modelo_transporte.xlsx
@@ -17163,7 +17163,7 @@
     </row>
     <row r="2" spans="1:2797">
       <c r="A2">
-        <v>25603040993.56501</v>
+        <v>1162576266800</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17244,34 +17244,34 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -17349,37 +17349,37 @@
         <v>1</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -17454,40 +17454,40 @@
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2">
         <v>1</v>
       </c>
       <c r="CV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -17562,40 +17562,40 @@
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE2">
         <v>1</v>
       </c>
       <c r="EF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
@@ -17673,37 +17673,37 @@
         <v>1</v>
       </c>
       <c r="FO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
         <v>0</v>
@@ -17781,37 +17781,37 @@
         <v>1</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -17886,40 +17886,40 @@
         <v>0</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II2">
         <v>1</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT2">
         <v>0</v>
@@ -17994,40 +17994,40 @@
         <v>0</v>
       </c>
       <c r="JR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS2">
         <v>1</v>
       </c>
       <c r="JT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD2">
         <v>0</v>
@@ -18105,37 +18105,37 @@
         <v>1</v>
       </c>
       <c r="LC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LN2">
         <v>0</v>
@@ -18210,40 +18210,40 @@
         <v>0</v>
       </c>
       <c r="ML2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM2">
         <v>1</v>
       </c>
       <c r="MN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX2">
         <v>0</v>
@@ -18321,37 +18321,37 @@
         <v>1</v>
       </c>
       <c r="NW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OH2">
         <v>0</v>
@@ -18429,37 +18429,37 @@
         <v>1</v>
       </c>
       <c r="PG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PR2">
         <v>0</v>
@@ -18537,37 +18537,37 @@
         <v>1</v>
       </c>
       <c r="QQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RB2">
         <v>0</v>
@@ -18645,37 +18645,37 @@
         <v>1</v>
       </c>
       <c r="SA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SL2">
         <v>0</v>
@@ -18753,37 +18753,37 @@
         <v>1</v>
       </c>
       <c r="TK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TV2">
         <v>0</v>
@@ -18861,37 +18861,37 @@
         <v>1</v>
       </c>
       <c r="UU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VF2">
         <v>0</v>
@@ -18966,40 +18966,40 @@
         <v>0</v>
       </c>
       <c r="WD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WE2">
         <v>1</v>
       </c>
       <c r="WF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WP2">
         <v>0</v>
@@ -19077,37 +19077,37 @@
         <v>1</v>
       </c>
       <c r="XO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XZ2">
         <v>0</v>
@@ -19185,37 +19185,37 @@
         <v>1</v>
       </c>
       <c r="YY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZJ2">
         <v>0</v>
@@ -19293,37 +19293,37 @@
         <v>1</v>
       </c>
       <c r="AAI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAT2">
         <v>0</v>
@@ -19401,37 +19401,37 @@
         <v>1</v>
       </c>
       <c r="ABS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACD2">
         <v>0</v>
@@ -19509,37 +19509,37 @@
         <v>1</v>
       </c>
       <c r="ADC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADN2">
         <v>0</v>
@@ -19617,37 +19617,37 @@
         <v>1</v>
       </c>
       <c r="AEM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AER2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AES2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AET2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEX2">
         <v>0</v>
@@ -19725,37 +19725,37 @@
         <v>1</v>
       </c>
       <c r="AFW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGH2">
         <v>0</v>
@@ -19830,40 +19830,40 @@
         <v>0</v>
       </c>
       <c r="AHF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHG2">
         <v>1</v>
       </c>
       <c r="AHH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHR2">
         <v>0</v>
@@ -19941,37 +19941,37 @@
         <v>33900</v>
       </c>
       <c r="AIQ2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIR2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIS2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIT2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIU2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIV2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIW2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIX2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIY2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIZ2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AJA2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AJB2">
         <v>0</v>
@@ -20046,40 +20046,40 @@
         <v>0</v>
       </c>
       <c r="AJZ2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKA2">
         <v>6000</v>
       </c>
       <c r="AKB2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKC2">
-        <v>847.561000000002</v>
+        <v>0</v>
       </c>
       <c r="AKD2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKE2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKF2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKG2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKH2">
-        <v>1925.94500000001</v>
+        <v>0</v>
       </c>
       <c r="AKI2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKJ2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKK2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKL2">
         <v>0</v>
@@ -20154,40 +20154,40 @@
         <v>0</v>
       </c>
       <c r="ALJ2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALK2">
         <v>1800</v>
       </c>
       <c r="ALL2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALM2">
         <v>0</v>
       </c>
       <c r="ALN2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALO2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALP2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALQ2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALR2">
         <v>0</v>
       </c>
       <c r="ALS2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALT2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALU2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALV2">
         <v>0</v>
@@ -20265,37 +20265,37 @@
         <v>900</v>
       </c>
       <c r="AMU2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMV2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMW2">
         <v>0</v>
       </c>
       <c r="AMX2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMY2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMZ2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANA2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANB2">
         <v>0</v>
       </c>
       <c r="ANC2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AND2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANE2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANF2">
         <v>0</v>
@@ -21021,37 +21021,37 @@
         <v>4500</v>
       </c>
       <c r="AWM2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWN2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWO2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWP2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWQ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWR2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWV2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWX2">
         <v>0</v>
@@ -21129,37 +21129,37 @@
         <v>11700</v>
       </c>
       <c r="AXW2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AXX2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AXY2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AXZ2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYA2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYB2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYC2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYD2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYE2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYF2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYG2">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="AYH2">
         <v>0</v>
@@ -21558,40 +21558,40 @@
         <v>0</v>
       </c>
       <c r="BDJ2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDK2">
         <v>3300</v>
       </c>
       <c r="BDL2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDM2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDN2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDO2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDP2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDQ2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDR2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDS2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDT2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDU2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDV2">
         <v>0</v>
@@ -21990,40 +21990,40 @@
         <v>0</v>
       </c>
       <c r="BIX2">
-        <v>4999</v>
+        <v>15000</v>
       </c>
       <c r="BIY2">
-        <v>5841.4875</v>
+        <v>0</v>
       </c>
       <c r="BIZ2">
-        <v>9042.940000000001</v>
+        <v>0</v>
       </c>
       <c r="BJA2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BJB2">
-        <v>8031.955</v>
+        <v>0</v>
       </c>
       <c r="BJC2">
-        <v>7256.8665</v>
+        <v>0</v>
       </c>
       <c r="BJD2">
-        <v>7189.4675</v>
+        <v>0</v>
       </c>
       <c r="BJE2">
-        <v>10256.122</v>
+        <v>0</v>
       </c>
       <c r="BJF2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BJG2">
-        <v>9986.526</v>
+        <v>0</v>
       </c>
       <c r="BJH2">
-        <v>11435.6045</v>
+        <v>0</v>
       </c>
       <c r="BJI2">
-        <v>12918.3825</v>
+        <v>0</v>
       </c>
       <c r="BJJ2">
         <v>0</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="BKH2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="BKI2">
         <v>0</v>
@@ -22107,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="BKK2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="BKL2">
         <v>0</v>
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="BKP2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="BKQ2">
         <v>0</v>
@@ -22317,37 +22317,37 @@
         <v>300</v>
       </c>
       <c r="BNC2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BND2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNE2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNF2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNG2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNH2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNI2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNJ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNK2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNL2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNM2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNN2">
         <v>0</v>
@@ -22965,37 +22965,37 @@
         <v>1855</v>
       </c>
       <c r="BVK2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVL2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVM2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVN2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVO2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVP2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVQ2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVR2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVS2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVT2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVU2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVV2">
         <v>0</v>
@@ -23070,40 +23070,40 @@
         <v>0</v>
       </c>
       <c r="BWT2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWU2">
         <v>1630</v>
       </c>
       <c r="BWV2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWW2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWX2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWY2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWZ2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXA2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXB2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXC2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXD2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXE2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXF2">
         <v>0</v>
@@ -23178,40 +23178,40 @@
         <v>0</v>
       </c>
       <c r="BYD2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYE2">
         <v>1020</v>
       </c>
       <c r="BYF2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYG2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYH2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYI2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYJ2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYK2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYL2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYM2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYN2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYO2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYP2">
         <v>0</v>
@@ -23289,37 +23289,37 @@
         <v>2700</v>
       </c>
       <c r="BZO2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZP2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZQ2">
-        <v>1088.904</v>
+        <v>0</v>
       </c>
       <c r="BZR2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZS2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZT2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZU2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZV2">
-        <v>1625.48</v>
+        <v>0</v>
       </c>
       <c r="BZW2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZX2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZY2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZZ2">
         <v>0</v>
@@ -23394,40 +23394,40 @@
         <v>0</v>
       </c>
       <c r="CAX2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CAY2">
         <v>1420</v>
       </c>
       <c r="CAZ2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBA2">
         <v>0</v>
       </c>
       <c r="CBB2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBC2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBD2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBE2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBF2">
         <v>0</v>
       </c>
       <c r="CBG2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBH2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBI2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBJ2">
         <v>0</v>
@@ -23505,37 +23505,37 @@
         <v>3600</v>
       </c>
       <c r="CCI2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCJ2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCK2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCL2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCM2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCN2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCO2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCP2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCQ2">
-        <v>2942.664</v>
+        <v>0</v>
       </c>
       <c r="CCR2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCS2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCT2">
         <v>0</v>
@@ -23613,37 +23613,37 @@
         <v>4500</v>
       </c>
       <c r="CDS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDV2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDX2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDY2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDZ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CEA2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CEB2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CEC2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CED2">
         <v>0</v>
@@ -23829,37 +23829,37 @@
         <v>4500</v>
       </c>
       <c r="CGM2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGN2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGO2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGP2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGQ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGR2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGV2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGX2">
         <v>0</v>
@@ -23937,37 +23937,37 @@
         <v>900</v>
       </c>
       <c r="CHW2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHX2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHY2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHZ2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIA2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIB2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIC2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CID2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIE2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIF2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIG2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIH2">
         <v>0</v>
@@ -24045,37 +24045,37 @@
         <v>2100</v>
       </c>
       <c r="CJG2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJH2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJI2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJJ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJK2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJL2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJM2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJN2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJO2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJP2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJQ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJR2">
         <v>0</v>
@@ -24261,37 +24261,37 @@
         <v>3840</v>
       </c>
       <c r="CMA2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMB2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMC2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMD2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CME2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMF2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMG2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMH2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMI2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMJ2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMK2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CML2">
         <v>0</v>
@@ -24366,40 +24366,40 @@
         <v>0</v>
       </c>
       <c r="CNJ2">
-        <v>521</v>
+        <v>2400</v>
       </c>
       <c r="CNK2">
-        <v>940.199999999997</v>
+        <v>0</v>
       </c>
       <c r="CNL2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNM2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNN2">
-        <v>2030.12</v>
+        <v>0</v>
       </c>
       <c r="CNO2">
-        <v>1644.456</v>
+        <v>0</v>
       </c>
       <c r="CNP2">
-        <v>1610.92</v>
+        <v>0</v>
       </c>
       <c r="CNQ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNR2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNS2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNT2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNU2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNV2">
         <v>0</v>
@@ -24474,16 +24474,16 @@
         <v>0</v>
       </c>
       <c r="COT2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="COU2">
         <v>0</v>
       </c>
       <c r="COV2">
-        <v>133.160000000003</v>
+        <v>0</v>
       </c>
       <c r="COW2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="COX2">
         <v>0</v>
@@ -24495,19 +24495,19 @@
         <v>0</v>
       </c>
       <c r="CPA2">
-        <v>736.807999999997</v>
+        <v>0</v>
       </c>
       <c r="CPB2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPC2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPD2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPE2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPF2">
         <v>0</v>
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="CRN2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CRO2">
         <v>0</v>
@@ -24699,7 +24699,7 @@
         <v>0</v>
       </c>
       <c r="CRQ2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="CRR2">
         <v>0</v>
@@ -24714,16 +24714,16 @@
         <v>0</v>
       </c>
       <c r="CRV2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="CRW2">
         <v>0</v>
       </c>
       <c r="CRX2">
-        <v>63.6880000000019</v>
+        <v>0</v>
       </c>
       <c r="CRY2">
-        <v>801.480000000003</v>
+        <v>0</v>
       </c>
       <c r="CRZ2">
         <v>0</v>
@@ -24801,37 +24801,37 @@
         <v>1100</v>
       </c>
       <c r="CSY2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CSZ2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTA2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTB2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTC2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTD2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTE2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTF2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTG2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTH2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTI2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTJ2">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="CUB2">
-        <v>-1.60982338570648E-13</v>
+        <v>0</v>
       </c>
       <c r="CUC2">
         <v>0</v>
@@ -24909,37 +24909,37 @@
         <v>2400</v>
       </c>
       <c r="CUI2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUJ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUK2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUL2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUM2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUN2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUO2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUP2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUQ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUR2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUS2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUT2">
         <v>0</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="CVL2">
-        <v>1.60982338570648E-13</v>
+        <v>0</v>
       </c>
       <c r="CVM2">
         <v>0</v>
@@ -25014,40 +25014,40 @@
         <v>0</v>
       </c>
       <c r="CVR2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVS2">
         <v>1450</v>
       </c>
       <c r="CVT2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVU2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVV2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVW2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVX2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVY2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVZ2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWA2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWB2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWC2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWD2">
         <v>0</v>
@@ -25122,40 +25122,40 @@
         <v>0</v>
       </c>
       <c r="CXB2">
-        <v>67399</v>
+        <v>66780</v>
       </c>
       <c r="CXC2">
-        <v>68241.4875</v>
+        <v>11100</v>
       </c>
       <c r="CXD2">
-        <v>71442.94</v>
+        <v>0</v>
       </c>
       <c r="CXE2">
-        <v>70027.561</v>
+        <v>0</v>
       </c>
       <c r="CXF2">
-        <v>70431.955</v>
+        <v>0</v>
       </c>
       <c r="CXG2">
-        <v>69656.8665</v>
+        <v>0</v>
       </c>
       <c r="CXH2">
-        <v>69589.4675</v>
+        <v>0</v>
       </c>
       <c r="CXI2">
-        <v>72656.122</v>
+        <v>0</v>
       </c>
       <c r="CXJ2">
-        <v>71105.94500000001</v>
+        <v>0</v>
       </c>
       <c r="CXK2">
-        <v>72386.526</v>
+        <v>0</v>
       </c>
       <c r="CXL2">
-        <v>73835.6045</v>
+        <v>0</v>
       </c>
       <c r="CXM2">
-        <v>75318.38250000001</v>
+        <v>0</v>
       </c>
       <c r="CXN2">
         <v>0</v>
@@ -25230,40 +25230,40 @@
         <v>0</v>
       </c>
       <c r="CYL2">
-        <v>33536</v>
+        <v>32355</v>
       </c>
       <c r="CYM2">
-        <v>33955.2</v>
+        <v>5520</v>
       </c>
       <c r="CYN2">
-        <v>35548.16</v>
+        <v>0</v>
       </c>
       <c r="CYO2">
-        <v>34843.904</v>
+        <v>0</v>
       </c>
       <c r="CYP2">
-        <v>35045.12</v>
+        <v>0</v>
       </c>
       <c r="CYQ2">
-        <v>34659.456</v>
+        <v>0</v>
       </c>
       <c r="CYR2">
-        <v>34625.92</v>
+        <v>0</v>
       </c>
       <c r="CYS2">
-        <v>36151.808</v>
+        <v>0</v>
       </c>
       <c r="CYT2">
-        <v>35380.48</v>
+        <v>0</v>
       </c>
       <c r="CYU2">
-        <v>36017.664</v>
+        <v>0</v>
       </c>
       <c r="CYV2">
-        <v>36738.688</v>
+        <v>0</v>
       </c>
       <c r="CYW2">
-        <v>37476.48</v>
+        <v>0</v>
       </c>
       <c r="CYX2">
         <v>0</v>
@@ -25482,76 +25482,76 @@
         <v>-0</v>
       </c>
       <c r="DBR2">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="DBS2">
-        <v>0</v>
+        <v>57141.4875</v>
       </c>
       <c r="DBT2">
-        <v>0</v>
+        <v>71442.94</v>
       </c>
       <c r="DBU2">
-        <v>0</v>
+        <v>70027.561</v>
       </c>
       <c r="DBV2">
-        <v>0</v>
+        <v>70431.955</v>
       </c>
       <c r="DBW2">
-        <v>0</v>
+        <v>69656.8665</v>
       </c>
       <c r="DBX2">
-        <v>0</v>
+        <v>69589.4675</v>
       </c>
       <c r="DBY2">
-        <v>0</v>
+        <v>72656.122</v>
       </c>
       <c r="DBZ2">
-        <v>0</v>
+        <v>71105.94500000001</v>
       </c>
       <c r="DCA2">
-        <v>0</v>
+        <v>72386.526</v>
       </c>
       <c r="DCB2">
-        <v>0</v>
+        <v>73835.6045</v>
       </c>
       <c r="DCC2">
-        <v>0</v>
+        <v>75318.38250000001</v>
       </c>
       <c r="DCD2">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="DCE2">
-        <v>0</v>
+        <v>28435.2</v>
       </c>
       <c r="DCF2">
-        <v>0</v>
+        <v>35548.16</v>
       </c>
       <c r="DCG2">
-        <v>0</v>
+        <v>34843.904</v>
       </c>
       <c r="DCH2">
-        <v>0</v>
+        <v>35045.12</v>
       </c>
       <c r="DCI2">
-        <v>0</v>
+        <v>34659.456</v>
       </c>
       <c r="DCJ2">
-        <v>0</v>
+        <v>34625.92</v>
       </c>
       <c r="DCK2">
-        <v>0</v>
+        <v>36151.808</v>
       </c>
       <c r="DCL2">
-        <v>0</v>
+        <v>35380.48</v>
       </c>
       <c r="DCM2">
-        <v>0</v>
+        <v>36017.664</v>
       </c>
       <c r="DCN2">
-        <v>0</v>
+        <v>36738.688</v>
       </c>
       <c r="DCO2">
-        <v>0</v>
+        <v>37476.48</v>
       </c>
     </row>
   </sheetData>
